--- a/icvp/StructureDefinition-Immunization-uv-ips-ICVP.xlsx
+++ b/icvp/StructureDefinition-Immunization-uv-ips-ICVP.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:36:54+00:00</t>
+    <t>2025-10-17T14:28:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -474,7 +474,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}has-an-icvp-vaccine-product-id-code:Check if there is a business identifier of a vaccine product in the ICVP product catalogue,  The ICVP product catalogue consists of vaccines listed in the list of Prequalified Vaccines and the Emergency Use Listing.
  - https://extranet.who.int/prequal/vaccines/prequalified-vaccines
  - https://www.who.int/teams/regulation-prequalification/eul
-In FHIR R6, this could also be a reference to an InventoryItem {memberOf('http://smart.who.int/icvp/ValueSet/ICVPProductIds')}</t>
+In FHIR R6, this could also be a reference to an InventoryItem {.valueCoding.code.memberOf('http://smart.who.int/icvp/ValueSet/ICVPProductIds')}</t>
   </si>
   <si>
     <t>Immunization.modifierExtension</t>
